--- a/ExampleExperimentPlan.xlsx
+++ b/ExampleExperimentPlan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Personal\Mattia\RosaToolbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tman\Documents\GitHub\HanganuOpatzToolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684064BC-2EA1-4E1C-8DFC-55689BE89687}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Summary</t>
   </si>
@@ -104,181 +105,37 @@
     <t>ramp</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
     <t>Neonatal</t>
   </si>
   <si>
-    <t>PFCL2</t>
-  </si>
-  <si>
-    <t>19 23 27 31</t>
-  </si>
-  <si>
-    <t>1:30</t>
-  </si>
-  <si>
-    <t>PFCL5</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Just Baseline</t>
-  </si>
-  <si>
-    <t>U:\Recording_data_2018\Mattia\</t>
-  </si>
-  <si>
-    <t>Q:\Recording_data_2019\Mattia\</t>
-  </si>
-  <si>
-    <t>1:60</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>1 too lateral</t>
-  </si>
-  <si>
-    <t>Pre</t>
-  </si>
-  <si>
-    <t>virus</t>
-  </si>
-  <si>
-    <t>ramps 10%</t>
-  </si>
-  <si>
-    <t>ramps 6%</t>
-  </si>
-  <si>
     <t>baseline only</t>
   </si>
   <si>
-    <t>ramps 8%</t>
-  </si>
-  <si>
-    <t>ramps 7%</t>
-  </si>
-  <si>
-    <t>ramps 12%</t>
-  </si>
-  <si>
-    <t>CamKII Virus injections</t>
-  </si>
-  <si>
-    <t>46195-1</t>
-  </si>
-  <si>
-    <t>2019-04-08_09-43-54</t>
-  </si>
-  <si>
-    <t>2019-04-08_11-03-30</t>
-  </si>
-  <si>
-    <t>46195-2</t>
-  </si>
-  <si>
-    <t>2019-04-09_09-52-42</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>2019-04-09_11-15-48</t>
-  </si>
-  <si>
-    <t>2019-04-09_11-27-33</t>
-  </si>
-  <si>
-    <t>46195-3</t>
-  </si>
-  <si>
-    <t>2019-04-09_12-00-13</t>
-  </si>
-  <si>
-    <t>2019-04-09_13-00-12</t>
-  </si>
-  <si>
-    <t>2019-04-09_13-05-46</t>
-  </si>
-  <si>
-    <t>good, expression deep but ok</t>
-  </si>
-  <si>
-    <t>48254-2</t>
-  </si>
-  <si>
-    <t>2019-09-04_09-16-17</t>
-  </si>
-  <si>
-    <t>2019-09-04_10-44-07</t>
-  </si>
-  <si>
-    <t>2019-09-04_10-56-52</t>
-  </si>
-  <si>
-    <t>48254-3</t>
-  </si>
-  <si>
-    <t>2019-09-04_13-16-43</t>
-  </si>
-  <si>
-    <t>2019-09-04_14-57-46</t>
-  </si>
-  <si>
-    <t>61:120</t>
-  </si>
-  <si>
-    <t>2019-09-04_15-32-59</t>
-  </si>
-  <si>
-    <t>Only (long) baselines</t>
-  </si>
-  <si>
-    <t>307-1</t>
-  </si>
-  <si>
-    <t>2018-07-23_15-41-50</t>
-  </si>
-  <si>
-    <t>232-1</t>
-  </si>
-  <si>
-    <t>2018-07-24_14-16-09</t>
-  </si>
-  <si>
-    <t>232-2</t>
-  </si>
-  <si>
-    <t>2018-07-25_14-11-20</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>2018-07-26_09-56-57</t>
-  </si>
-  <si>
     <t>histology</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>good -</t>
+    <t>3463</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Q:\Recording_data_2021\Tony\</t>
+  </si>
+  <si>
+    <t>2021-11-03_16-25-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +646,7 @@
       </c>
       <c r="E4" s="12">
         <f>COUNT(E6:E34)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G4" s="17"/>
       <c r="I4" s="18"/>
@@ -821,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>13</v>
@@ -918,9 +775,7 @@
       <c r="S8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="A9" s="29"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S10" s="7"/>
@@ -929,17 +784,13 @@
       <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="28"/>
       <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="C12" s="15"/>
       <c r="D12" s="27" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E12" s="20">
         <v>1</v>
@@ -947,12 +798,14 @@
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="24"/>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="I12" s="25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J12" s="7">
         <v>7</v>
@@ -960,888 +813,237 @@
       <c r="K12" s="7">
         <v>3.8</v>
       </c>
-      <c r="L12" s="7">
-        <v>9</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="M12" s="26"/>
       <c r="N12" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="T12" s="5">
         <v>1</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="20">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="7">
-        <v>7</v>
-      </c>
-      <c r="K13" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="L13" s="7">
-        <v>9</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="5">
-        <v>1</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="23"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
+      <c r="A14" s="28"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="20">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="7"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="7">
-        <v>8</v>
-      </c>
-      <c r="K14" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" s="5">
-        <v>1</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="I14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="23"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="20">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="7">
-        <v>8</v>
-      </c>
-      <c r="K15" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T15" s="5">
-        <v>1</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="23"/>
+      <c r="S15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="20">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="7">
-        <v>8</v>
-      </c>
-      <c r="K16" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T16" s="5">
-        <v>1</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="23"/>
+      <c r="S16" s="7"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="15">
-        <v>1</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="20">
-        <v>6</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A17" s="28"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="7"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="7">
-        <v>8</v>
-      </c>
-      <c r="K17" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L17" s="7">
-        <v>9</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="5">
-        <v>1</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="I17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="23"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="20">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="7">
-        <v>8</v>
-      </c>
-      <c r="K18" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L18" s="7">
-        <v>9</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="5">
-        <v>1</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="23"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="20">
-        <v>8</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="7">
-        <v>8</v>
-      </c>
-      <c r="K19" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L19" s="7">
-        <v>9</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="5">
-        <v>1</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="23"/>
+      <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="20">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A20" s="28"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="7"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="7">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L20" s="7">
-        <v>8</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="5">
-        <v>1</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="I20" s="25"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="23"/>
+      <c r="S20" s="7"/>
       <c r="Y20" s="15"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="20">
-        <v>10</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="7">
-        <v>10</v>
-      </c>
-      <c r="K21" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L21" s="7">
-        <v>8</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="5">
-        <v>1</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="23"/>
+      <c r="S21" s="7"/>
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="20">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="7">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L22" s="7">
-        <v>8</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="23"/>
+      <c r="S22" s="7"/>
       <c r="Y22" s="15"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="15">
-        <v>1</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="20">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A23" s="28"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="7"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="7">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L23" s="7">
-        <v>9</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="5">
-        <v>1</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="I23" s="25"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="23"/>
+      <c r="S23" s="7"/>
       <c r="Y23" s="15"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="20">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="7">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L24" s="7">
-        <v>9</v>
-      </c>
-      <c r="M24" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="5">
-        <v>1</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="7"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="23"/>
+      <c r="S24" s="7"/>
       <c r="Y24" s="15"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="20">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="7">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L25" s="7">
-        <v>9</v>
-      </c>
-      <c r="M25" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="5">
-        <v>1</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="7"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="23"/>
+      <c r="S25" s="7"/>
       <c r="Y25" s="15"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="20">
-        <v>15</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="7">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="L26" s="7">
-        <v>9</v>
-      </c>
-      <c r="M26" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T26" s="5">
-        <v>1</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="7"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="23"/>
+      <c r="S26" s="7"/>
       <c r="Y26" s="15"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>71</v>
-      </c>
+      <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S29" s="7"/>
@@ -1866,246 +1068,62 @@
       <c r="S30" s="7"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="15">
-        <v>1</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="20">
-        <v>101</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A31" s="28"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="7"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="7">
-        <v>6</v>
-      </c>
-      <c r="K31" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="L31" s="7">
-        <v>9</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O31" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T31" s="5">
-        <v>1</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="I31" s="25"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="23"/>
+      <c r="S31" s="7"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="15">
-        <v>1</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="20">
-        <v>102</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A32" s="28"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="7"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="7">
-        <v>6</v>
-      </c>
-      <c r="K32" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="L32" s="7">
-        <v>9</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="5">
-        <v>1</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="20">
-        <v>103</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="I32" s="25"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="23"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="7"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="7">
-        <v>7</v>
-      </c>
-      <c r="K33" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="L33" s="7">
-        <v>10</v>
-      </c>
-      <c r="M33" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T33" s="5">
-        <v>1</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="15">
-        <v>1</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="20">
-        <v>104</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="I33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="23"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="7"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="7">
-        <v>4</v>
-      </c>
-      <c r="K34" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="L34" s="7">
-        <v>9</v>
-      </c>
-      <c r="M34" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34" s="5">
-        <v>1</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="23"/>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2124,7 +1142,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2143,7 +1161,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2162,7 +1180,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2181,7 +1199,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2200,7 +1218,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2219,7 +1237,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2238,7 +1256,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2257,7 +1275,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2276,7 +1294,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2295,7 +1313,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2314,7 +1332,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2333,7 +1351,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2352,7 +1370,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
